--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805DA045-F11F-496D-8672-1DFFBA6A7752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3B506-9912-43CE-B943-E533956D9330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="タイトル" sheetId="1" r:id="rId1"/>
     <sheet name="素材" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>必要素材</t>
     <rPh sb="0" eb="2">
@@ -190,6 +190,295 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくら善戦</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファ小原ン</t>
+    <rPh sb="4" eb="6">
+      <t>オバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム概要</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南から上がってくる桜前線から「春度」を奪い、北海道に桜を咲かせよう！</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンセン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム詳細</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月(沖縄に桜前線が到達)からスタートして6月(北海道に桜前線が到達)になったらゲーム終了</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゼンセン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは北海道以南に咲いた桜の木を雪玉で攻撃する</t>
+    <rPh sb="6" eb="9">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜の木に攻撃をすると北海道の桜の花が育つ</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ソダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道の桜の花を狙う敵(蝶)がいるのでそれも迎撃する必要がある</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲイゲキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア条件</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道の桜の花を攻撃されると「春度」が減ってしまう</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「春度」100%になると北海道で開花</t>
+    <rPh sb="1" eb="2">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>桜前線が北海道に到達する前に桜が咲けば</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ゲームクリア</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サクラゼンセン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>桜が咲く前に到達してしまうと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ゲームオーバー</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウタツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +502,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF99FF"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +538,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -245,19 +561,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,19 +1070,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="5.8984375" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="E3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -552,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627CF7-5499-48ED-9DCB-BEC1B1DA45F5}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3B506-9912-43CE-B943-E533956D9330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AAF7B-195C-4B4F-A286-11A3EC8B5B87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>必要素材</t>
     <rPh sb="0" eb="2">
@@ -482,12 +482,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,14 +543,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -725,9 +752,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +794,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -746,45 +812,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1072,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1087,24 +1116,24 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1119,100 +1148,100 @@
     </row>
     <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627CF7-5499-48ED-9DCB-BEC1B1DA45F5}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1236,7 +1265,7 @@
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1278,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,8 +1295,9 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1277,27 +1310,31 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="22">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1305,13 +1342,14 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1319,6 +1357,7 @@
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AAF7B-195C-4B4F-A286-11A3EC8B5B87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270ECF1-5E35-4A46-B2D8-36CE05AB9192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>必要素材</t>
     <rPh sb="0" eb="2">
@@ -494,6 +494,133 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃が当たった音</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の音</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトBGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃音</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月に入ったらピッチを上げる</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音の種類</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bullet.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemy.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drain.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -748,11 +875,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,6 +1053,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -785,35 +1099,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1116,13 +1423,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="E3" s="5" t="s">
@@ -1138,13 +1445,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1153,22 +1460,22 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1177,71 +1484,71 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627CF7-5499-48ED-9DCB-BEC1B1DA45F5}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1265,40 +1572,41 @@
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="22">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
@@ -1310,27 +1618,27 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -1342,22 +1650,117 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.600000000000001" thickTop="1">
+      <c r="B10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270ECF1-5E35-4A46-B2D8-36CE05AB9192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DEC640-4B39-4F04-8412-23AC4C981623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1054,51 +1054,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1121,6 +1076,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1423,13 +1426,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="E3" s="5" t="s">
@@ -1445,13 +1448,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1460,22 +1463,22 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1484,71 +1487,71 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1561,7 +1564,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1574,39 +1577,39 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
@@ -1618,10 +1621,10 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6">
@@ -1633,12 +1636,12 @@
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -1650,96 +1653,96 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickTop="1">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1748,19 +1751,19 @@
       <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DEC640-4B39-4F04-8412-23AC4C981623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78660C14-22B7-4638-BD4E-08E1C55AB676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -1076,54 +1076,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1426,13 +1426,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="E3" s="5" t="s">
@@ -1448,13 +1448,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1463,22 +1463,22 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1487,71 +1487,71 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627CF7-5499-48ED-9DCB-BEC1B1DA45F5}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1696,26 +1696,26 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13" t="s">
@@ -1728,16 +1728,16 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="25" t="s">
         <v>44</v>
       </c>
     </row>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\HGS2024Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ハッカソン\HGS2024Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78660C14-22B7-4638-BD4E-08E1C55AB676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745F6928-97AB-4ABD-953F-106132E62014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1079,6 +1079,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,24 +1124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1411,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1426,13 +1432,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="E3" s="5" t="s">
@@ -1448,13 +1454,13 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1463,22 +1469,22 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1">
@@ -1487,71 +1493,71 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627CF7-5499-48ED-9DCB-BEC1B1DA45F5}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1686,14 +1692,14 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickTop="1">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="23" t="s">
@@ -1742,28 +1748,28 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
